--- a/file_excel/upload.xlsx
+++ b/file_excel/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project_manage\file_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8BD4EE-9E52-46A2-BD87-1164AE26429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE43ED-214E-4BAA-B0BA-07D89905C6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ชื่อแผนงาน</t>
   </si>
@@ -39,10 +39,16 @@
     <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์2</t>
   </si>
   <si>
-    <t>ดำเนินการซื้อครุภัณฑ์2</t>
-  </si>
-  <si>
-    <t>2000000</t>
+    <t>ซื้อคอม</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>เครื่องปริ้น</t>
+  </si>
+  <si>
+    <t>ไอแพด</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7C164-0FB8-4A43-8B9D-8EA448790CE1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
@@ -476,6 +482,28 @@
       </c>
       <c r="D2" s="4"/>
     </row>
+    <row r="3" spans="1:4" ht="63">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file_excel/upload.xlsx
+++ b/file_excel/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project_manage\file_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE43ED-214E-4BAA-B0BA-07D89905C6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9C9759-33C7-4645-898B-E097AB86E564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ชื่อแผนงาน</t>
   </si>
@@ -39,9 +39,6 @@
     <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์2</t>
   </si>
   <si>
-    <t>ซื้อคอม</t>
-  </si>
-  <si>
     <t>1000000</t>
   </si>
   <si>
@@ -49,6 +46,30 @@
   </si>
   <si>
     <t>ไอแพด</t>
+  </si>
+  <si>
+    <t>รหัสแผนงาน</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์3</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์1</t>
+  </si>
+  <si>
+    <t>คอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>หมึกดำ</t>
   </si>
 </sst>
 </file>
@@ -59,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot; &quot;#,##0.00;[Red]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +110,13 @@
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,11 +139,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -125,7 +150,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,68 +480,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7C164-0FB8-4A43-8B9D-8EA448790CE1}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="63">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="63">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D3" s="8">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="63">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:5" ht="63">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D4" s="8">
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>500000</v>
+    <row r="5" spans="1:5" ht="63">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file_excel/upload.xlsx
+++ b/file_excel/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project_manage\file_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9C9759-33C7-4645-898B-E097AB86E564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F5977-F2FE-4936-9522-848BE2CFB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ชื่อแผนงาน</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>หมึกดำ</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>หมึกสี</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,13 +162,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7C164-0FB8-4A43-8B9D-8EA448790CE1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
@@ -491,7 +494,7 @@
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -536,7 +539,7 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -550,7 +553,7 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="2">
         <v>500000</v>
       </c>
     </row>
@@ -564,8 +567,22 @@
       <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="2">
         <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/file_excel/upload.xlsx
+++ b/file_excel/upload.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project_manage\file_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F5977-F2FE-4936-9522-848BE2CFB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECAF96-8898-4911-8156-ED41C492E4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>ชื่อแผนงาน</t>
   </si>
@@ -76,6 +78,69 @@
   </si>
   <si>
     <t>หมึกสี</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์5</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์6</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์7</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์8</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์9</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์10</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์11</t>
+  </si>
+  <si>
+    <t>การจัดซื้อวัสดุ ครุภัณฑ์คอมพิวเตอร์12</t>
+  </si>
+  <si>
+    <t>คอมพิวเตอร์9</t>
+  </si>
+  <si>
+    <t>เครื่องปริ้น10</t>
+  </si>
+  <si>
+    <t>ไอแพด10</t>
+  </si>
+  <si>
+    <t>หมึกดำ11</t>
+  </si>
+  <si>
+    <t>หมึกสี12</t>
   </si>
 </sst>
 </file>
@@ -485,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7C164-0FB8-4A43-8B9D-8EA448790CE1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
@@ -589,4 +654,222 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2768D8-F1A7-459B-8B1F-74AFE1264FEF}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="63">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D192E586-6013-4A71-992A-AE8D21E089EA}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="63">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/file_excel/upload.xlsx
+++ b/file_excel/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project_manage\file_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECAF96-8898-4911-8156-ED41C492E4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836B64B-347F-4108-A681-A0F809C1C28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{993FFEA2-2083-4E4B-A1B3-B299167209E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,15 +554,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
@@ -661,18 +661,18 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
@@ -770,18 +770,18 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1">
